--- a/testData.xlsx
+++ b/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9155" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Module3Assignment2_LoginData" sheetId="2" r:id="rId2"/>
+    <sheet name="Module4Assignment2_GetQuote" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -42,6 +43,45 @@
   </si>
   <si>
     <t>emailxyz123</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Brief of Project</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>amit@amit.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mobile App Development</t>
+  </si>
+  <si>
+    <t>$25k+</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
   </si>
 </sst>
 </file>
@@ -49,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +104,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -87,14 +143,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -103,9 +151,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,6 +188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -140,76 +219,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +272,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,43 +314,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,43 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,61 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +463,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,21 +530,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -520,156 +568,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,17 +1051,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1043,21 +1097,21 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1067,6 +1121,75 @@
       </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="17.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778"/>
+    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="42.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.2" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:7">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>6748757685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
